--- a/attendance-record_spare.xlsx
+++ b/attendance-record_spare.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Desktop/service/Подростковая домашка ВН/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2B3527F5-B6AF-4049-8AD1-8043DDE7DEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EC59EF82-F604-8545-9F96-CAFD9A6B1AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="460" windowWidth="27040" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="460" windowWidth="27040" windowHeight="16820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Осень 2024" sheetId="1" r:id="rId1"/>
+    <sheet name="Зима 2024-2025" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Осень 2024'!$5:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Осень 2024'!$A$1:$P$21</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Зима 2024-2025'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Осень 2024'!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Зима 2024-2025'!$A$1:$Q$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Осень 2024'!$A$1:$L$22</definedName>
     <definedName name="checkBox">#REF!</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2009-2022 Vertex42 LLC"</definedName>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="36">
   <si>
     <t>[42]</t>
   </si>
@@ -49,6 +52,9 @@
     <t>%</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>Подростковая домашка</t>
   </si>
   <si>
@@ -89,6 +95,60 @@
   </si>
   <si>
     <t>Ева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тема: </t>
+  </si>
+  <si>
+    <t>Тема: Молитва</t>
+  </si>
+  <si>
+    <t>Ника К.</t>
+  </si>
+  <si>
+    <t>Тема: Прославление</t>
+  </si>
+  <si>
+    <t>Тема: Соблазны</t>
+  </si>
+  <si>
+    <t>Руфа Г.</t>
+  </si>
+  <si>
+    <t>Тема: Верность</t>
+  </si>
+  <si>
+    <t>Тема: Дух Божий в нас</t>
+  </si>
+  <si>
+    <t>Тема: Ценен ли я. Проводит Катя Ц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тема: Отменена </t>
+  </si>
+  <si>
+    <t>Тема: Воля Божья</t>
+  </si>
+  <si>
+    <t>Тема: Послушание</t>
+  </si>
+  <si>
+    <t>Алена Д.</t>
+  </si>
+  <si>
+    <t>Тема: Критика. Проводит Катя Ц.</t>
+  </si>
+  <si>
+    <t>Тема: Рождественская викторина</t>
+  </si>
+  <si>
+    <t>Тема: Отменена</t>
+  </si>
+  <si>
+    <t>Тема: Истиное Евангелие</t>
+  </si>
+  <si>
+    <t>Тема: Сеющий в плоть</t>
   </si>
 </sst>
 </file>
@@ -98,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -315,8 +375,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,8 +491,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3DDEF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -556,6 +628,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA6A6A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -607,7 +694,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -669,6 +756,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="34" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="34" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="75" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% — акцент1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1026,27 +1116,726 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="92" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="118" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="2" customWidth="1"/>
-    <col min="3" max="14" width="12.83203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="3" max="10" width="12.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:14" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="11"/>
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" ht="124" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23">
+        <v>45575</v>
+      </c>
+      <c r="D6" s="24">
+        <f>C6+7</f>
+        <v>45582</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" ref="E6:J6" si="0">D6+7</f>
+        <v>45589</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" si="0"/>
+        <v>45596</v>
+      </c>
+      <c r="G6" s="24">
+        <f t="shared" si="0"/>
+        <v>45603</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" si="0"/>
+        <v>45610</v>
+      </c>
+      <c r="I6" s="24">
+        <f t="shared" si="0"/>
+        <v>45617</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" si="0"/>
+        <v>45624</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="20">
+        <f t="shared" ref="A7:A21" ca="1" si="1">OFFSET(A7,-1,0,1,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="21">
+        <f>COUNTA(C7:J7)</f>
+        <v>6</v>
+      </c>
+      <c r="L7" s="22">
+        <f>K7/COUNTA($C$6:$J$6)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="21">
+        <f>COUNTA(C8:J8)</f>
+        <v>4</v>
+      </c>
+      <c r="L8" s="22">
+        <f>K8/COUNTA($C$6:$J$6)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="21">
+        <f>COUNTA(C9:J9)</f>
+        <v>7</v>
+      </c>
+      <c r="L9" s="22">
+        <f>K9/COUNTA($C$6:$J$6)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="21">
+        <f>COUNTA(C10:J10)</f>
+        <v>7</v>
+      </c>
+      <c r="L10" s="22">
+        <f>K10/COUNTA($C$6:$J$6)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="21">
+        <f>COUNTA(C11:J11)</f>
+        <v>2</v>
+      </c>
+      <c r="L11" s="22">
+        <f>K11/COUNTA($C$6:$J$6)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="21">
+        <f>COUNTA(C12:J12)</f>
+        <v>7</v>
+      </c>
+      <c r="L12" s="22">
+        <f>K12/COUNTA($C$6:$J$6)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="21">
+        <f>COUNTA(C13:J13)</f>
+        <v>6</v>
+      </c>
+      <c r="L13" s="22">
+        <f>K13/COUNTA($C$6:$J$6)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="21">
+        <f>COUNTA(C14:J14)</f>
+        <v>6</v>
+      </c>
+      <c r="L14" s="22">
+        <f>K14/COUNTA($C$6:$J$6)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="21">
+        <f>COUNTA(C15:J15)</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="22">
+        <f>K15/COUNTA($C$6:$J$6)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A16" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="21">
+        <f>COUNTA(C16:J16)</f>
+        <v>3</v>
+      </c>
+      <c r="L16" s="22">
+        <f>K16/COUNTA($C$6:$J$6)</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A17" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="21">
+        <f>COUNTA(C17:J17)</f>
+        <v>2</v>
+      </c>
+      <c r="L17" s="22">
+        <f>K17/COUNTA($C$6:$J$6)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A18" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="21">
+        <f>COUNTA(C18:J18)</f>
+        <v>4</v>
+      </c>
+      <c r="L18" s="22">
+        <f>K18/COUNTA($C$6:$J$6)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A19" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="21">
+        <f>COUNTA(C19:J19)</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="22">
+        <f>K19/COUNTA($C$6:$J$6)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A20" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="21">
+        <f>COUNTA(C20:J20)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="22">
+        <f>K20/COUNTA($C$6:$J$6)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A21" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="21">
+        <f>COUNTA(C21:J21)</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="22">
+        <f>K21/COUNTA($C$6:$J$6)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="B22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="15">
+        <f>COUNTA(C7:C21)</f>
+        <v>6</v>
+      </c>
+      <c r="D22" s="15">
+        <f>COUNTA(D7:D21)</f>
+        <v>9</v>
+      </c>
+      <c r="E22" s="15">
+        <f>COUNTA(E7:E21)</f>
+        <v>9</v>
+      </c>
+      <c r="F22" s="15">
+        <f>COUNTA(F7:F21)</f>
+        <v>7</v>
+      </c>
+      <c r="G22" s="15">
+        <f>COUNTA(G7:G21)</f>
+        <v>8</v>
+      </c>
+      <c r="H22" s="15">
+        <f>COUNTA(H7:H21)</f>
+        <v>15</v>
+      </c>
+      <c r="I22" s="15">
+        <f>COUNTA(I7:I21)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <f>COUNTA(J7:J21)</f>
+        <v>5</v>
+      </c>
+      <c r="K22" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:J21" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>checkBox</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L&amp;8&amp;K01+032Attendance Record Template © 2009-2014 by Vertex42.com&amp;R&amp;8&amp;K01+032https://www.vertex42.com/ExcelTemplates/attendance-record.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF46697B-0956-2949-AFE9-FD58B7653BB4}">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" customWidth="1"/>
+    <col min="3" max="15" width="12.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="6"/>
@@ -1062,8 +1851,9 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1079,11 +1869,12 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="R2" s="25"/>
-    </row>
-    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="P2" s="8"/>
+      <c r="S2" s="25"/>
+    </row>
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1099,13 +1890,14 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="26"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
+      <c r="S3" s="26"/>
+    </row>
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1121,221 +1913,280 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:18" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="23">
-        <v>45575</v>
-      </c>
-      <c r="D5" s="24">
-        <f>C5+7</f>
-        <v>45582</v>
-      </c>
-      <c r="E5" s="24">
-        <f t="shared" ref="E5:L5" si="0">D5+7</f>
-        <v>45589</v>
-      </c>
-      <c r="F5" s="24">
+      <c r="Q4" s="11"/>
+      <c r="S4" s="26"/>
+    </row>
+    <row r="5" spans="1:19" ht="124" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23">
+        <v>45631</v>
+      </c>
+      <c r="D6" s="24">
+        <f>C6+7</f>
+        <v>45638</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" ref="E6:O6" si="0">D6+7</f>
+        <v>45645</v>
+      </c>
+      <c r="F6" s="24">
         <f t="shared" si="0"/>
-        <v>45596</v>
-      </c>
-      <c r="G5" s="24">
+        <v>45652</v>
+      </c>
+      <c r="G6" s="24">
         <f t="shared" si="0"/>
-        <v>45603</v>
-      </c>
-      <c r="H5" s="24">
+        <v>45659</v>
+      </c>
+      <c r="H6" s="24">
         <f t="shared" si="0"/>
-        <v>45610</v>
-      </c>
-      <c r="I5" s="24">
+        <v>45666</v>
+      </c>
+      <c r="I6" s="24">
         <f t="shared" si="0"/>
-        <v>45617</v>
-      </c>
-      <c r="J5" s="24">
+        <v>45673</v>
+      </c>
+      <c r="J6" s="24">
         <f t="shared" si="0"/>
-        <v>45624</v>
-      </c>
-      <c r="K5" s="24">
+        <v>45680</v>
+      </c>
+      <c r="K6" s="24">
         <f t="shared" si="0"/>
-        <v>45631</v>
-      </c>
-      <c r="L5" s="24">
+        <v>45687</v>
+      </c>
+      <c r="L6" s="24">
         <f t="shared" si="0"/>
-        <v>45638</v>
-      </c>
-      <c r="M5" s="24">
-        <f>L5+7</f>
-        <v>45645</v>
-      </c>
-      <c r="N5" s="24">
-        <f>M5+7</f>
-        <v>45652</v>
-      </c>
-      <c r="O5" s="4" t="s">
+        <v>45694</v>
+      </c>
+      <c r="M6" s="24">
+        <f t="shared" si="0"/>
+        <v>45701</v>
+      </c>
+      <c r="N6" s="24">
+        <f t="shared" si="0"/>
+        <v>45708</v>
+      </c>
+      <c r="O6" s="24">
+        <f t="shared" si="0"/>
+        <v>45715</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="20">
-        <f t="shared" ref="A6:A20" ca="1" si="1">OFFSET(A6,-1,0,1,1)+1</f>
+    <row r="7" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="20">
+        <f t="shared" ref="A7:A21" ca="1" si="1">OFFSET(A7,-1,0,1,1)+1</f>
         <v>1</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="21">
-        <f>COUNTA(C6:M6)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="22">
-        <f>O6/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="O7" s="21">
-        <f>COUNTA(C7:M7)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="22">
-        <f>O7/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="O7" s="18"/>
+      <c r="P7" s="21">
+        <f>COUNTA(C7:K7)</f>
+        <v>5</v>
+      </c>
+      <c r="Q7" s="22">
+        <f>P7/COUNTA($C$6:$O$6)</f>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
-      <c r="O8" s="21">
-        <f>COUNTA(C8:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="22">
-        <f>O8/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="O8" s="18"/>
+      <c r="P8" s="21">
+        <f>COUNTA(C8:K8)</f>
+        <v>3</v>
+      </c>
+      <c r="Q8" s="22">
+        <f>P8/COUNTA($C$6:$O$6)</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
-      <c r="O9" s="21">
-        <f>COUNTA(C9:M9)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="22">
-        <f>O9/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="O9" s="18"/>
+      <c r="P9" s="21">
+        <f>COUNTA(C9:K9)</f>
+        <v>3</v>
+      </c>
+      <c r="Q9" s="22">
+        <f>P9/COUNTA($C$6:$O$6)</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
-      <c r="O10" s="21">
-        <f>COUNTA(C10:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="22">
-        <f>O10/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="O10" s="18"/>
+      <c r="P10" s="21">
+        <f>COUNTA(C10:K10)</f>
+        <v>5</v>
+      </c>
+      <c r="Q10" s="22">
+        <f>P10/COUNTA($C$6:$O$6)</f>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -1346,83 +2197,104 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
-      <c r="O11" s="21">
-        <f>COUNTA(C11:M11)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="22">
-        <f>O11/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="O11" s="18"/>
+      <c r="P11" s="21">
+        <f>COUNTA(C11:K11)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="22">
+        <f>P11/COUNTA($C$6:$O$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
-      <c r="O12" s="21">
-        <f>COUNTA(C12:M12)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="22">
-        <f>O12/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="O12" s="18"/>
+      <c r="P12" s="21">
+        <f>COUNTA(C12:K12)</f>
+        <v>4</v>
+      </c>
+      <c r="Q12" s="22">
+        <f>P12/COUNTA($C$6:$O$6)</f>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
-      <c r="O13" s="21">
-        <f>COUNTA(C13:M13)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="22">
-        <f>O13/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="O13" s="18"/>
+      <c r="P13" s="21">
+        <f>COUNTA(C13:K13)</f>
+        <v>4</v>
+      </c>
+      <c r="Q13" s="22">
+        <f>P13/COUNTA($C$6:$O$6)</f>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -1433,25 +2305,30 @@
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
-      <c r="O14" s="21">
-        <f>COUNTA(C14:M14)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="22">
-        <f>O14/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="O14" s="18"/>
+      <c r="P14" s="21">
+        <f>COUNTA(C14:K14)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="22">
+        <f>P14/COUNTA($C$6:$O$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -1462,26 +2339,33 @@
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
-      <c r="O15" s="21">
-        <f>COUNTA(C15:M15)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="22">
-        <f>O15/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="O15" s="18"/>
+      <c r="P15" s="21">
+        <f>COUNTA(C15:K15)</f>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="22">
+        <f>P15/COUNTA($C$6:$O$6)</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B16" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -1489,23 +2373,30 @@
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
-      <c r="O16" s="21">
-        <f>COUNTA(C16:M16)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="22">
-        <f>O16/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="O16" s="18"/>
+      <c r="P16" s="21">
+        <f>COUNTA(C16:K16)</f>
+        <v>2</v>
+      </c>
+      <c r="Q16" s="22">
+        <f>P16/COUNTA($C$6:$O$6)</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -1516,23 +2407,26 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
-      <c r="O17" s="21">
-        <f>COUNTA(C17:M17)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="22">
-        <f>O17/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="O17" s="18"/>
+      <c r="P17" s="21">
+        <f>COUNTA(C17:K17)</f>
+        <v>2</v>
+      </c>
+      <c r="Q17" s="22">
+        <f>P17/COUNTA($C$6:$O$6)</f>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -1543,23 +2437,26 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
-      <c r="O18" s="21">
-        <f>COUNTA(C18:M18)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="22">
-        <f>O18/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="O18" s="18"/>
+      <c r="P18" s="21">
+        <f>COUNTA(C18:K18)</f>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="22">
+        <f>P18/COUNTA($C$6:$O$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -1570,23 +2467,26 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
-      <c r="O19" s="21">
-        <f>COUNTA(C19:M19)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="22">
-        <f>O19/COUNTA($C$5:$N$5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="O19" s="18"/>
+      <c r="P19" s="21">
+        <f>COUNTA(C19:K19)</f>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="22">
+        <f>P19/COUNTA($C$6:$O$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>3</v>
+      </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -1597,73 +2497,107 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
-      <c r="O20" s="21">
-        <f>COUNTA(C20:M20)</f>
+      <c r="O20" s="18"/>
+      <c r="P20" s="21">
+        <f>COUNTA(C20:K20)</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="22">
+        <f>P20/COUNTA($C$6:$O$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A21" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="21">
+        <f>COUNTA(C21:K21)</f>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="22">
+        <f>P21/COUNTA($C$6:$O$6)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="B22" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="15">
+        <f>COUNTA(C7:C21)</f>
+        <v>5</v>
+      </c>
+      <c r="D22" s="15">
+        <f>COUNTA(D7:D21)</f>
+        <v>15</v>
+      </c>
+      <c r="E22" s="15">
+        <f>COUNTA(E7:E21)</f>
+        <v>4</v>
+      </c>
+      <c r="F22" s="15">
+        <f>COUNTA(F7:F21)</f>
         <v>0</v>
       </c>
-      <c r="P20" s="22">
-        <f>O20/COUNTA($C$5:$N$5)</f>
+      <c r="G22" s="15">
+        <f>COUNTA(G7:G21)</f>
+        <v>6</v>
+      </c>
+      <c r="H22" s="15">
+        <f>COUNTA(H7:H21)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="B21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="15">
-        <f>COUNTA(C6:C20)</f>
+      <c r="I22" s="15">
+        <f>COUNTA(I7:I21)</f>
+        <v>6</v>
+      </c>
+      <c r="J22" s="15">
+        <f>COUNTA(J7:J21)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="15">
-        <f>COUNTA(D6:D20)</f>
+      <c r="K22" s="15">
+        <f>COUNTA(K7:K21)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="15">
-        <f>COUNTA(E6:E20)</f>
+      <c r="L22" s="15">
+        <f>COUNTA(L7:L21)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="15">
-        <f>COUNTA(F6:F20)</f>
+      <c r="M22" s="15">
+        <f>COUNTA(M7:M21)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="15">
-        <f>COUNTA(G6:G20)</f>
+      <c r="N22" s="15">
+        <f>COUNTA(N7:N21)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="15">
-        <f>COUNTA(H6:H20)</f>
+      <c r="O22" s="15">
+        <f>COUNTA(O7:O21)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="15">
-        <f>COUNTA(I6:I20)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="15">
-        <f>COUNTA(J6:J20)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="15">
-        <f>COUNTA(K6:K20)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="15">
-        <f>COUNTA(L6:L20)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="15">
-        <f>COUNTA(M6:M20)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="15">
-        <f>COUNTA(N6:N20)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="16"/>
+      <c r="P22" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:N20" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:O21" xr:uid="{FBE5936A-9807-4242-B92F-7C12C7F1348E}">
       <formula1>checkBox</formula1>
     </dataValidation>
   </dataValidations>
